--- a/CalMultiRDMA/insert-2.xlsx
+++ b/CalMultiRDMA/insert-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minxinhao/c++/CalPlot/CalMultiRDMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1A97A6-9FBA-C442-ABE2-9D5747E68AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528E59F9-6A9F-E54B-829C-C3B2FA945480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6140" yWindow="24160" windowWidth="26640" windowHeight="15440" xr2:uid="{58A63B56-02C1-A14A-BFE9-1C7A7225A97D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>RACE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t>Plush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Array-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -429,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F574CE2E-5EA8-C144-B9A9-906C465902CF}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -456,293 +452,234 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>41784.69</v>
+        <v>14924.8199999999</v>
       </c>
       <c r="C2">
-        <v>73742.39</v>
+        <v>17729.650000000001</v>
       </c>
       <c r="D2">
-        <v>108704.13</v>
+        <v>21279.21</v>
       </c>
       <c r="E2">
-        <v>53863.32</v>
+        <v>23938.63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3">
-        <v>40641.709999999897</v>
+        <v>14068.3</v>
       </c>
       <c r="C3">
-        <v>53598.21</v>
+        <v>16481.5</v>
       </c>
       <c r="D3">
-        <v>51536.22</v>
+        <v>23365.99</v>
       </c>
       <c r="E3">
-        <v>39088.53</v>
+        <v>22368.35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4">
-        <v>36891.06</v>
+        <v>14906.11</v>
       </c>
       <c r="C4">
-        <v>54069.98</v>
+        <v>15361.69</v>
       </c>
       <c r="D4">
-        <v>46563.9399999999</v>
+        <v>21864.82</v>
       </c>
       <c r="E4">
-        <v>30719.299999999901</v>
+        <v>23493.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5">
-        <v>28534.039999999899</v>
+        <v>11834.65</v>
       </c>
       <c r="C5">
-        <v>58875.71</v>
+        <v>14323.93</v>
       </c>
       <c r="D5">
-        <v>42147.7</v>
+        <v>18373.77</v>
       </c>
       <c r="E5">
-        <v>28327.38</v>
+        <v>18782.23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>14924.8199999999</v>
+        <v>3312.41</v>
       </c>
       <c r="C6">
-        <v>17729.650000000001</v>
+        <v>3821.81</v>
       </c>
       <c r="D6">
-        <v>21279.21</v>
+        <v>4357.24</v>
       </c>
       <c r="E6">
-        <v>23938.63</v>
+        <v>3717.01</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7">
-        <v>14068.3</v>
+        <v>1116.81</v>
       </c>
       <c r="C7">
-        <v>16481.5</v>
+        <v>885.57</v>
       </c>
       <c r="D7">
-        <v>23365.99</v>
+        <v>1150.44999999999</v>
       </c>
       <c r="E7">
-        <v>22368.35</v>
+        <v>828.92</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8">
-        <v>14906.11</v>
+        <v>707.00999999999897</v>
       </c>
       <c r="C8">
-        <v>15361.69</v>
+        <v>492.9</v>
       </c>
       <c r="D8">
-        <v>21864.82</v>
+        <v>415.65</v>
       </c>
       <c r="E8">
-        <v>23493.08</v>
+        <v>455.86</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9">
-        <v>11834.65</v>
+        <v>340.5</v>
       </c>
       <c r="C9">
-        <v>14323.93</v>
+        <v>347.65</v>
       </c>
       <c r="D9">
-        <v>18373.77</v>
+        <v>280.92</v>
       </c>
       <c r="E9">
-        <v>18782.23</v>
+        <v>233.4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>3312.41</v>
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10977.97</v>
       </c>
       <c r="C10">
-        <v>3821.81</v>
+        <v>15165.34</v>
       </c>
       <c r="D10">
-        <v>4357.24</v>
-      </c>
-      <c r="E10">
-        <v>3717.01</v>
+        <v>14627.14</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9846.64</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11">
-        <v>1116.81</v>
+      <c r="B11" s="1">
+        <v>12718.93</v>
       </c>
       <c r="C11">
-        <v>885.57</v>
+        <v>15005.89</v>
       </c>
       <c r="D11">
-        <v>1150.44999999999</v>
-      </c>
-      <c r="E11">
-        <v>828.92</v>
+        <v>15362.89</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9718.0499999999993</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12">
-        <v>707.00999999999897</v>
+      <c r="B12" s="1">
+        <v>10777.08</v>
       </c>
       <c r="C12">
-        <v>492.9</v>
+        <v>12475.75</v>
       </c>
       <c r="D12">
-        <v>415.65</v>
-      </c>
-      <c r="E12">
-        <v>455.86</v>
+        <v>12906.84</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8427.73</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13">
-        <v>340.5</v>
+      <c r="B13" s="1">
+        <v>11123.96</v>
       </c>
       <c r="C13">
-        <v>347.65</v>
+        <v>15247.32</v>
       </c>
       <c r="D13">
-        <v>280.92</v>
-      </c>
-      <c r="E13">
-        <v>233.4</v>
+        <v>11095.39</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7364.44</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10977.97</v>
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2800.19</v>
       </c>
       <c r="C14">
-        <v>15165.34</v>
+        <v>2614.0700000000002</v>
       </c>
       <c r="D14">
-        <v>14627.14</v>
-      </c>
-      <c r="E14" s="1">
-        <v>9846.64</v>
+        <v>2423.7999999999902</v>
+      </c>
+      <c r="E14">
+        <v>1960.59</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="B15" s="1">
-        <v>12718.93</v>
+      <c r="B15">
+        <v>1879.0899999999899</v>
       </c>
       <c r="C15">
-        <v>15005.89</v>
+        <v>1783.34</v>
       </c>
       <c r="D15">
-        <v>15362.89</v>
-      </c>
-      <c r="E15" s="1">
-        <v>9718.0499999999993</v>
+        <v>1511</v>
+      </c>
+      <c r="E15">
+        <v>929.69</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="1">
-        <v>10777.08</v>
+      <c r="B16">
+        <v>1752.1599999999901</v>
       </c>
       <c r="C16">
-        <v>12475.75</v>
+        <v>1657.15</v>
       </c>
       <c r="D16">
-        <v>12906.84</v>
-      </c>
-      <c r="E16" s="1">
-        <v>8427.73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="B17" s="1">
-        <v>11123.96</v>
+        <v>1216.5</v>
+      </c>
+      <c r="E16">
+        <v>761.88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17">
+        <v>1534.46</v>
       </c>
       <c r="C17">
-        <v>15247.32</v>
+        <v>1489.96</v>
       </c>
       <c r="D17">
-        <v>11095.39</v>
-      </c>
-      <c r="E17" s="1">
-        <v>7364.44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>2800.19</v>
-      </c>
-      <c r="C18">
-        <v>2614.0700000000002</v>
-      </c>
-      <c r="D18">
-        <v>2423.7999999999902</v>
-      </c>
-      <c r="E18">
-        <v>1960.59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19">
-        <v>1879.0899999999899</v>
-      </c>
-      <c r="C19">
-        <v>1783.34</v>
-      </c>
-      <c r="D19">
-        <v>1511</v>
-      </c>
-      <c r="E19">
-        <v>929.69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="B20">
-        <v>1752.1599999999901</v>
-      </c>
-      <c r="C20">
-        <v>1657.15</v>
-      </c>
-      <c r="D20">
-        <v>1216.5</v>
-      </c>
-      <c r="E20">
-        <v>761.88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21">
-        <v>1534.46</v>
-      </c>
-      <c r="C21">
-        <v>1489.96</v>
-      </c>
-      <c r="D21">
         <v>1137.8499999999999</v>
       </c>
-      <c r="E21">
+      <c r="E17">
         <v>656.89</v>
       </c>
     </row>
